--- a/Scores/2017-09-12.xlsx
+++ b/Scores/2017-09-12.xlsx
@@ -29,7 +29,7 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Last Game</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Score</t>
@@ -44,30 +44,30 @@
     <t>DUAN Wenqiang</t>
   </si>
   <si>
+    <t>WU Xiaokang</t>
+  </si>
+  <si>
     <t>ZHANG Mingli</t>
   </si>
   <si>
     <t>XUE Shumei</t>
   </si>
   <si>
-    <t>WU Xiaokang</t>
-  </si>
-  <si>
     <t>ZHAN Wei</t>
   </si>
   <si>
     <t>ZHANG Chaojiong</t>
   </si>
   <si>
+    <t>BONAITI Gabriele</t>
+  </si>
+  <si>
+    <t>ZHANG Ruoyu</t>
+  </si>
+  <si>
     <t>XIAO Xudong</t>
   </si>
   <si>
-    <t>BONAITI Gabriele</t>
-  </si>
-  <si>
-    <t>ZHANG Ruoyu</t>
-  </si>
-  <si>
     <t>QIN Song</t>
   </si>
   <si>
@@ -98,25 +98,25 @@
     <t>段文强</t>
   </si>
   <si>
+    <t>吴小康</t>
+  </si>
+  <si>
     <t>张明礼</t>
   </si>
   <si>
     <t>薛淑梅</t>
   </si>
   <si>
-    <t>吴小康</t>
-  </si>
-  <si>
     <t>詹卫</t>
   </si>
   <si>
     <t>张超迥</t>
   </si>
   <si>
+    <t>张若愚</t>
+  </si>
+  <si>
     <t>肖旭东</t>
-  </si>
-  <si>
-    <t>张若愚</t>
   </si>
   <si>
     <t>秦松</t>
@@ -144,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,24 +159,14 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="SimSun"/>
     </font>
   </fonts>
@@ -256,39 +246,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -579,259 +563,259 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="20.1796875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="9">
         <v>42981</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>1900</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="9">
         <v>42985</v>
       </c>
-      <c r="D3" s="1">
-        <v>1837</v>
+      <c r="D3" s="8">
+        <v>1836</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>42981</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="9">
         <v>42990</v>
       </c>
-      <c r="D4" s="1">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="D5" s="8">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>42990</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42990</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>42990</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
         <v>42981</v>
       </c>
-      <c r="D5" s="1">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="D9" s="8">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9">
         <v>42990</v>
       </c>
-      <c r="D6" s="1">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="D10" s="8">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <v>42985</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>42981</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9">
         <v>42990</v>
       </c>
-      <c r="D7" s="1">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>42990</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42981</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42985</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>42985</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>42985</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>42990</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2">
-        <v>42985</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>42985</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2">
-        <v>42981</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>42990</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1529</v>
+      <c r="D17" s="8">
+        <v>1531</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="9">
         <v>42983</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="8">
         <v>1445</v>
       </c>
     </row>
